--- a/010-外部設計/015-ER図.xlsx
+++ b/010-外部設計/015-ER図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\010-外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\新卒メンバー\柴田隼輔\99_レビュー依頼\010_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADA3326-ED2C-4543-B47A-7B9734188016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FD97E-4B1B-4476-81E2-C99B8CF6CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -263,20 +263,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>配送先住所</t>
-    <rPh sb="0" eb="5">
-      <t>ハイソウサキジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>購入日</t>
-    <rPh sb="0" eb="3">
-      <t>コウニュウビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>購入数</t>
     <rPh sb="0" eb="3">
       <t>コウニュウスウ</t>
@@ -312,30 +298,6 @@
     <t>商品テーブル</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>商品名</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>商品の色</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メーカー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -395,10 +357,6 @@
     <rPh sb="5" eb="6">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カテゴリーテーブル</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -532,6 +490,100 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2025/09/08</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購入ヘッダーテーブルに支払方法のカラムを追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シハライホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配送先住所</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支払い方法</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>色ID（FK)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2025/9/12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メーカ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品の色テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品の色ID（PK)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品の色名</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イロメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品の色テーブルの追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1172,7 +1224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1359,6 +1411,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,8 +1790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8910918" y="6122894"/>
-          <a:ext cx="358588" cy="152400"/>
+          <a:off x="9316983" y="6284310"/>
+          <a:ext cx="372241" cy="153276"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
@@ -1919,8 +1983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8910918" y="5844988"/>
-          <a:ext cx="358588" cy="125506"/>
+          <a:off x="9316983" y="5999655"/>
+          <a:ext cx="372241" cy="131379"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
@@ -2073,8 +2137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8910918" y="5970494"/>
-          <a:ext cx="358588" cy="152400"/>
+          <a:off x="9316983" y="6131034"/>
+          <a:ext cx="372241" cy="153276"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
@@ -2222,8 +2286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8910918" y="6275294"/>
-          <a:ext cx="358588" cy="152400"/>
+          <a:off x="9316983" y="6437586"/>
+          <a:ext cx="372241" cy="153276"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
@@ -2384,13 +2448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2444,13 +2508,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2504,13 +2568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
@@ -2558,13 +2622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>326390</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>29845</xdr:rowOff>
@@ -2612,13 +2676,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>64771</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>369888</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -2672,13 +2736,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -2726,13 +2790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -2780,13 +2844,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2834,13 +2898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9843</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>29845</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>69533</xdr:rowOff>
@@ -2896,13 +2960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -2964,13 +3028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -3018,13 +3082,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
@@ -3072,13 +3136,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>4669</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>193676</xdr:rowOff>
@@ -3128,13 +3192,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>193676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
@@ -3190,13 +3254,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>106829</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
@@ -3258,14 +3322,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>13948</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117433</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>13948</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117433</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3282,8 +3346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3487772" y="4229287"/>
-          <a:ext cx="0" cy="793189"/>
+          <a:off x="3024322" y="4192764"/>
+          <a:ext cx="0" cy="775758"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3312,14 +3376,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>52366</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155851</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>235153</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159897</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -3336,8 +3400,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3167601" y="4924051"/>
-          <a:ext cx="720670" cy="0"/>
+          <a:off x="2705258" y="4870097"/>
+          <a:ext cx="719009" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3372,14 +3436,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>932</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104417</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>5058</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108543</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
@@ -3396,8 +3460,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3295461" y="4213412"/>
-          <a:ext cx="183421" cy="289261"/>
+          <a:off x="2832565" y="4176889"/>
+          <a:ext cx="182867" cy="283727"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3432,14 +3496,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6805</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>110290</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47922</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151406</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
@@ -3458,8 +3522,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3480629" y="4213412"/>
-          <a:ext cx="220411" cy="381336"/>
+          <a:off x="3017179" y="4176889"/>
+          <a:ext cx="219857" cy="375802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3494,14 +3558,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104120</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28864</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>86338</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11082</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
@@ -3518,8 +3582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3398649" y="4422177"/>
-          <a:ext cx="161513" cy="172571"/>
+          <a:off x="2935753" y="4382888"/>
+          <a:ext cx="160959" cy="169803"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3562,13 +3626,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>349623</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
@@ -3624,13 +3688,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>292468</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85314</xdr:rowOff>
@@ -3686,13 +3750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>98611</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>355221</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>40490</xdr:rowOff>
@@ -3746,13 +3810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
@@ -3806,13 +3870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>97118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>427691</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>109818</xdr:rowOff>
@@ -3874,13 +3938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3934,13 +3998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>127373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
@@ -3994,13 +4058,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>153520</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>140821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>170330</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
@@ -4056,13 +4120,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>153520</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>140821</xdr:rowOff>
@@ -4118,13 +4182,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>153520</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>58271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>128120</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>53041</xdr:rowOff>
@@ -4186,7 +4250,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>54606</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>77506</xdr:rowOff>
@@ -4242,6 +4306,380 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>84289</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>58889</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324042CC-F59B-4A10-BA4C-14EAE02DE3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5672289" y="2420420"/>
+          <a:ext cx="158531" cy="161184"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322736</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76639</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D502BE-B88D-4EBF-9638-ACDC01B074DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="3683857" y="4023733"/>
+          <a:ext cx="1823127" cy="1012474"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>39415</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>348439</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8461F8D2-7875-4D25-896F-9DFDE1DA45BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5097518" y="4784397"/>
+          <a:ext cx="681266" cy="3809"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8758</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175993</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B945D9-1138-4393-8069-D4F04A9641D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3687379" y="3713653"/>
+          <a:ext cx="368683" cy="248690"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10663</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205838</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5955619-D3BB-4B36-AC79-2F7BDBA0CE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3689284" y="3941027"/>
+          <a:ext cx="396623" cy="238213"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40454</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207743</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FF09D8-5D7A-4359-AB6A-8594BE84116B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3920523" y="3859429"/>
+          <a:ext cx="167289" cy="166414"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4621,7 +5059,7 @@
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="AF65" sqref="AF65"/>
+      <selection activeCell="AL49" sqref="AL49:AY50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -4739,25 +5177,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="70" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -4773,49 +5211,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="72" t="s">
+      <c r="AF3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="73" t="s">
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -4831,26 +5269,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -5456,44 +5894,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="75"/>
-      <c r="AR16" s="76"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="80"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -5512,42 +5950,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="79"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
+      <c r="AR17" s="83"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -5566,42 +6004,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="79"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="83"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -5620,42 +6058,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="79"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="83"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -5674,42 +6112,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="79"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="83"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -5728,42 +6166,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="79"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="83"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -5782,42 +6220,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="79"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="83"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -5836,42 +6274,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="78"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="79"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="83"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -5890,42 +6328,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="78"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="78"/>
-      <c r="AP24" s="78"/>
-      <c r="AQ24" s="78"/>
-      <c r="AR24" s="79"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="83"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -5944,42 +6382,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="78"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="79"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="83"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -5998,42 +6436,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="78"/>
-      <c r="AR26" s="79"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="83"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -6052,42 +6490,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="79"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="83"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -6106,42 +6544,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="79"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="83"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -6160,42 +6598,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="81"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="82"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="85"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="85"/>
+      <c r="AL29" s="85"/>
+      <c r="AM29" s="85"/>
+      <c r="AN29" s="85"/>
+      <c r="AO29" s="85"/>
+      <c r="AP29" s="85"/>
+      <c r="AQ29" s="85"/>
+      <c r="AR29" s="86"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -6967,30 +7405,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="72" t="s">
+      <c r="AF45" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
-      <c r="AI45" s="72"/>
-      <c r="AJ45" s="72"/>
-      <c r="AK45" s="72"/>
-      <c r="AL45" s="73" t="s">
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AM45" s="73"/>
-      <c r="AN45" s="73"/>
-      <c r="AO45" s="73"/>
-      <c r="AP45" s="73"/>
-      <c r="AQ45" s="73"/>
-      <c r="AR45" s="73"/>
-      <c r="AS45" s="73"/>
-      <c r="AT45" s="73"/>
-      <c r="AU45" s="73"/>
-      <c r="AV45" s="73"/>
-      <c r="AW45" s="73"/>
-      <c r="AX45" s="73"/>
-      <c r="AY45" s="73"/>
+      <c r="AM45" s="77"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="77"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="77"/>
+      <c r="AS45" s="77"/>
+      <c r="AT45" s="77"/>
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="77"/>
+      <c r="AW45" s="77"/>
+      <c r="AX45" s="77"/>
+      <c r="AY45" s="77"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7025,26 +7463,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="73"/>
-      <c r="AM46" s="73"/>
-      <c r="AN46" s="73"/>
-      <c r="AO46" s="73"/>
-      <c r="AP46" s="73"/>
-      <c r="AQ46" s="73"/>
-      <c r="AR46" s="73"/>
-      <c r="AS46" s="73"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="73"/>
-      <c r="AV46" s="73"/>
-      <c r="AW46" s="73"/>
-      <c r="AX46" s="73"/>
-      <c r="AY46" s="73"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="77"/>
+      <c r="AM46" s="77"/>
+      <c r="AN46" s="77"/>
+      <c r="AO46" s="77"/>
+      <c r="AP46" s="77"/>
+      <c r="AQ46" s="77"/>
+      <c r="AR46" s="77"/>
+      <c r="AS46" s="77"/>
+      <c r="AT46" s="77"/>
+      <c r="AU46" s="77"/>
+      <c r="AV46" s="77"/>
+      <c r="AW46" s="77"/>
+      <c r="AX46" s="77"/>
+      <c r="AY46" s="77"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -7079,30 +7517,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="72" t="s">
+      <c r="AF47" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="72"/>
-      <c r="AI47" s="72"/>
-      <c r="AJ47" s="72"/>
-      <c r="AK47" s="72"/>
-      <c r="AL47" s="83">
-        <v>45904</v>
-      </c>
-      <c r="AM47" s="83"/>
-      <c r="AN47" s="83"/>
-      <c r="AO47" s="83"/>
-      <c r="AP47" s="83"/>
-      <c r="AQ47" s="83"/>
-      <c r="AR47" s="83"/>
-      <c r="AS47" s="83"/>
-      <c r="AT47" s="83"/>
-      <c r="AU47" s="83"/>
-      <c r="AV47" s="83"/>
-      <c r="AW47" s="83"/>
-      <c r="AX47" s="83"/>
-      <c r="AY47" s="83"/>
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="87">
+        <v>45912</v>
+      </c>
+      <c r="AM47" s="87"/>
+      <c r="AN47" s="87"/>
+      <c r="AO47" s="87"/>
+      <c r="AP47" s="87"/>
+      <c r="AQ47" s="87"/>
+      <c r="AR47" s="87"/>
+      <c r="AS47" s="87"/>
+      <c r="AT47" s="87"/>
+      <c r="AU47" s="87"/>
+      <c r="AV47" s="87"/>
+      <c r="AW47" s="87"/>
+      <c r="AX47" s="87"/>
+      <c r="AY47" s="87"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -7137,26 +7575,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="72"/>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="72"/>
-      <c r="AL48" s="83"/>
-      <c r="AM48" s="83"/>
-      <c r="AN48" s="83"/>
-      <c r="AO48" s="83"/>
-      <c r="AP48" s="83"/>
-      <c r="AQ48" s="83"/>
-      <c r="AR48" s="83"/>
-      <c r="AS48" s="83"/>
-      <c r="AT48" s="83"/>
-      <c r="AU48" s="83"/>
-      <c r="AV48" s="83"/>
-      <c r="AW48" s="83"/>
-      <c r="AX48" s="83"/>
-      <c r="AY48" s="83"/>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="76"/>
+      <c r="AH48" s="76"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="87"/>
+      <c r="AO48" s="87"/>
+      <c r="AP48" s="87"/>
+      <c r="AQ48" s="87"/>
+      <c r="AR48" s="87"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="87"/>
+      <c r="AU48" s="87"/>
+      <c r="AV48" s="87"/>
+      <c r="AW48" s="87"/>
+      <c r="AX48" s="87"/>
+      <c r="AY48" s="87"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -7191,30 +7629,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="84" t="s">
+      <c r="AF49" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="85"/>
-      <c r="AH49" s="85"/>
-      <c r="AI49" s="85"/>
-      <c r="AJ49" s="85"/>
-      <c r="AK49" s="86"/>
-      <c r="AL49" s="90" t="s">
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="89"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="AM49" s="91"/>
-      <c r="AN49" s="91"/>
-      <c r="AO49" s="91"/>
-      <c r="AP49" s="91"/>
-      <c r="AQ49" s="91"/>
-      <c r="AR49" s="91"/>
-      <c r="AS49" s="91"/>
-      <c r="AT49" s="91"/>
-      <c r="AU49" s="91"/>
-      <c r="AV49" s="91"/>
-      <c r="AW49" s="91"/>
-      <c r="AX49" s="91"/>
-      <c r="AY49" s="92"/>
+      <c r="AM49" s="95"/>
+      <c r="AN49" s="95"/>
+      <c r="AO49" s="95"/>
+      <c r="AP49" s="95"/>
+      <c r="AQ49" s="95"/>
+      <c r="AR49" s="95"/>
+      <c r="AS49" s="95"/>
+      <c r="AT49" s="95"/>
+      <c r="AU49" s="95"/>
+      <c r="AV49" s="95"/>
+      <c r="AW49" s="95"/>
+      <c r="AX49" s="95"/>
+      <c r="AY49" s="96"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -7249,26 +7687,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="87"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="89"/>
-      <c r="AL50" s="93"/>
-      <c r="AM50" s="94"/>
-      <c r="AN50" s="94"/>
-      <c r="AO50" s="94"/>
-      <c r="AP50" s="94"/>
-      <c r="AQ50" s="94"/>
-      <c r="AR50" s="94"/>
-      <c r="AS50" s="94"/>
-      <c r="AT50" s="94"/>
-      <c r="AU50" s="94"/>
-      <c r="AV50" s="94"/>
-      <c r="AW50" s="94"/>
-      <c r="AX50" s="94"/>
-      <c r="AY50" s="95"/>
+      <c r="AF50" s="91"/>
+      <c r="AG50" s="92"/>
+      <c r="AH50" s="92"/>
+      <c r="AI50" s="92"/>
+      <c r="AJ50" s="92"/>
+      <c r="AK50" s="93"/>
+      <c r="AL50" s="97"/>
+      <c r="AM50" s="98"/>
+      <c r="AN50" s="98"/>
+      <c r="AO50" s="98"/>
+      <c r="AP50" s="98"/>
+      <c r="AQ50" s="98"/>
+      <c r="AR50" s="98"/>
+      <c r="AS50" s="98"/>
+      <c r="AT50" s="98"/>
+      <c r="AU50" s="98"/>
+      <c r="AV50" s="98"/>
+      <c r="AW50" s="98"/>
+      <c r="AX50" s="98"/>
+      <c r="AY50" s="99"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7410,7 +7848,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S44" sqref="S44"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14:AZ14"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9:AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -7419,2597 +7857,2613 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="103"/>
+      <c r="AX1" s="103"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="104"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="107"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="108" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="108" t="s">
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="108" t="s">
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="110"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="114"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="107">
+      <c r="A5" s="111">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="107" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107" t="s">
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107" t="s">
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="96">
+      <c r="A6" s="100">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="107" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107" t="s">
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="96"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="100"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="100"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="100"/>
+      <c r="AU6" s="100"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="100"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="100"/>
+      <c r="AZ6" s="100"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="96">
+      <c r="A7" s="100">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="107" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="96">
+      <c r="A8" s="100">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="96"/>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="96"/>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="96"/>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="96"/>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="96"/>
-      <c r="AX8" s="96"/>
-      <c r="AY8" s="96"/>
-      <c r="AZ8" s="96"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="100"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="100"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="100"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="100"/>
+      <c r="AU8" s="100"/>
+      <c r="AV8" s="100"/>
+      <c r="AW8" s="100"/>
+      <c r="AX8" s="100"/>
+      <c r="AY8" s="100"/>
+      <c r="AZ8" s="100"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="96">
+      <c r="A9" s="100">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="96"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="100"/>
+      <c r="AZ9" s="100"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="96">
+      <c r="A10" s="100">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="96"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="100"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="100"/>
+      <c r="AN10" s="100"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="100"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="100"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="100"/>
+      <c r="AU10" s="100"/>
+      <c r="AV10" s="100"/>
+      <c r="AW10" s="100"/>
+      <c r="AX10" s="100"/>
+      <c r="AY10" s="100"/>
+      <c r="AZ10" s="100"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="96">
+      <c r="A11" s="100">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="96"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="96"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="100"/>
+      <c r="AM11" s="100"/>
+      <c r="AN11" s="100"/>
+      <c r="AO11" s="100"/>
+      <c r="AP11" s="100"/>
+      <c r="AQ11" s="100"/>
+      <c r="AR11" s="100"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="100"/>
+      <c r="AU11" s="100"/>
+      <c r="AV11" s="100"/>
+      <c r="AW11" s="100"/>
+      <c r="AX11" s="100"/>
+      <c r="AY11" s="100"/>
+      <c r="AZ11" s="100"/>
     </row>
     <row r="12" spans="1:52" ht="12">
-      <c r="A12" s="96">
+      <c r="A12" s="100">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="96"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="96"/>
-      <c r="AZ12" s="96"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="100"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="100"/>
+      <c r="AK12" s="100"/>
+      <c r="AL12" s="100"/>
+      <c r="AM12" s="100"/>
+      <c r="AN12" s="100"/>
+      <c r="AO12" s="100"/>
+      <c r="AP12" s="100"/>
+      <c r="AQ12" s="100"/>
+      <c r="AR12" s="100"/>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="100"/>
+      <c r="AU12" s="100"/>
+      <c r="AV12" s="100"/>
+      <c r="AW12" s="100"/>
+      <c r="AX12" s="100"/>
+      <c r="AY12" s="100"/>
+      <c r="AZ12" s="100"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="96">
+      <c r="A13" s="100">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="96"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="100"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="100"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="100"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="100"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="100"/>
+      <c r="AU13" s="100"/>
+      <c r="AV13" s="100"/>
+      <c r="AW13" s="100"/>
+      <c r="AX13" s="100"/>
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="100"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="96">
+      <c r="A14" s="100">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="96"/>
-      <c r="AX14" s="96"/>
-      <c r="AY14" s="96"/>
-      <c r="AZ14" s="96"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="100"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="100"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="100"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="100"/>
+      <c r="AU14" s="100"/>
+      <c r="AV14" s="100"/>
+      <c r="AW14" s="100"/>
+      <c r="AX14" s="100"/>
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="100"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="96">
+      <c r="A15" s="100">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="96"/>
-      <c r="AS15" s="96"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="96"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="96"/>
-      <c r="AX15" s="96"/>
-      <c r="AY15" s="96"/>
-      <c r="AZ15" s="96"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="100"/>
+      <c r="AN15" s="100"/>
+      <c r="AO15" s="100"/>
+      <c r="AP15" s="100"/>
+      <c r="AQ15" s="100"/>
+      <c r="AR15" s="100"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="100"/>
+      <c r="AU15" s="100"/>
+      <c r="AV15" s="100"/>
+      <c r="AW15" s="100"/>
+      <c r="AX15" s="100"/>
+      <c r="AY15" s="100"/>
+      <c r="AZ15" s="100"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="96">
+      <c r="A16" s="100">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="96"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="100"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="100"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="100"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="100"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="100"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="100"/>
+      <c r="AU16" s="100"/>
+      <c r="AV16" s="100"/>
+      <c r="AW16" s="100"/>
+      <c r="AX16" s="100"/>
+      <c r="AY16" s="100"/>
+      <c r="AZ16" s="100"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="96">
+      <c r="A17" s="100">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="96"/>
-      <c r="AZ17" s="96"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="100"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="100"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="100"/>
+      <c r="AU17" s="100"/>
+      <c r="AV17" s="100"/>
+      <c r="AW17" s="100"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="100"/>
+      <c r="AZ17" s="100"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="96">
+      <c r="A18" s="100">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
-      <c r="AR18" s="96"/>
-      <c r="AS18" s="96"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="96"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="100"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="100"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="100"/>
+      <c r="AW18" s="100"/>
+      <c r="AX18" s="100"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="96">
+      <c r="A19" s="100">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="96"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="96"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="100"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="100"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="100"/>
+      <c r="AU19" s="100"/>
+      <c r="AV19" s="100"/>
+      <c r="AW19" s="100"/>
+      <c r="AX19" s="100"/>
+      <c r="AY19" s="100"/>
+      <c r="AZ19" s="100"/>
     </row>
     <row r="20" spans="1:52" ht="12">
-      <c r="A20" s="96">
+      <c r="A20" s="100">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="96"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="96"/>
-      <c r="AS20" s="96"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="96"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="96"/>
-      <c r="AX20" s="96"/>
-      <c r="AY20" s="96"/>
-      <c r="AZ20" s="96"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="100"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="100"/>
+      <c r="AU20" s="100"/>
+      <c r="AV20" s="100"/>
+      <c r="AW20" s="100"/>
+      <c r="AX20" s="100"/>
+      <c r="AY20" s="100"/>
+      <c r="AZ20" s="100"/>
     </row>
     <row r="21" spans="1:52" ht="12">
-      <c r="A21" s="96">
+      <c r="A21" s="100">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="96"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="100"/>
+      <c r="AN21" s="100"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="100"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="100"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="100"/>
+      <c r="AU21" s="100"/>
+      <c r="AV21" s="100"/>
+      <c r="AW21" s="100"/>
+      <c r="AX21" s="100"/>
+      <c r="AY21" s="100"/>
+      <c r="AZ21" s="100"/>
     </row>
     <row r="22" spans="1:52" ht="12">
-      <c r="A22" s="96">
+      <c r="A22" s="100">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="96"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="100"/>
+      <c r="AN22" s="100"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="100"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="100"/>
+      <c r="AV22" s="100"/>
+      <c r="AW22" s="100"/>
+      <c r="AX22" s="100"/>
+      <c r="AY22" s="100"/>
+      <c r="AZ22" s="100"/>
     </row>
     <row r="23" spans="1:52" ht="12">
-      <c r="A23" s="96">
+      <c r="A23" s="100">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="96"/>
-      <c r="AV23" s="96"/>
-      <c r="AW23" s="96"/>
-      <c r="AX23" s="96"/>
-      <c r="AY23" s="96"/>
-      <c r="AZ23" s="96"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="100"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="100"/>
     </row>
     <row r="24" spans="1:52" ht="12">
-      <c r="A24" s="96">
+      <c r="A24" s="100">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="96"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="96"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="96"/>
-      <c r="AX24" s="96"/>
-      <c r="AY24" s="96"/>
-      <c r="AZ24" s="96"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
     </row>
     <row r="25" spans="1:52" ht="12">
-      <c r="A25" s="96">
+      <c r="A25" s="100">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="96"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="96"/>
-      <c r="AX25" s="96"/>
-      <c r="AY25" s="96"/>
-      <c r="AZ25" s="96"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="100"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="100"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="100"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="100"/>
+      <c r="AV25" s="100"/>
+      <c r="AW25" s="100"/>
+      <c r="AX25" s="100"/>
+      <c r="AY25" s="100"/>
+      <c r="AZ25" s="100"/>
     </row>
     <row r="26" spans="1:52" ht="12">
-      <c r="A26" s="96">
+      <c r="A26" s="100">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="96"/>
-      <c r="AJ26" s="96"/>
-      <c r="AK26" s="96"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="96"/>
-      <c r="AN26" s="96"/>
-      <c r="AO26" s="96"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="96"/>
-      <c r="AR26" s="96"/>
-      <c r="AS26" s="96"/>
-      <c r="AT26" s="96"/>
-      <c r="AU26" s="96"/>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="96"/>
-      <c r="AX26" s="96"/>
-      <c r="AY26" s="96"/>
-      <c r="AZ26" s="96"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="100"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="100"/>
+      <c r="AV26" s="100"/>
+      <c r="AW26" s="100"/>
+      <c r="AX26" s="100"/>
+      <c r="AY26" s="100"/>
+      <c r="AZ26" s="100"/>
     </row>
     <row r="27" spans="1:52" ht="12">
-      <c r="A27" s="96">
+      <c r="A27" s="100">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="96"/>
-      <c r="AI27" s="96"/>
-      <c r="AJ27" s="96"/>
-      <c r="AK27" s="96"/>
-      <c r="AL27" s="96"/>
-      <c r="AM27" s="96"/>
-      <c r="AN27" s="96"/>
-      <c r="AO27" s="96"/>
-      <c r="AP27" s="96"/>
-      <c r="AQ27" s="96"/>
-      <c r="AR27" s="96"/>
-      <c r="AS27" s="96"/>
-      <c r="AT27" s="96"/>
-      <c r="AU27" s="96"/>
-      <c r="AV27" s="96"/>
-      <c r="AW27" s="96"/>
-      <c r="AX27" s="96"/>
-      <c r="AY27" s="96"/>
-      <c r="AZ27" s="96"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="100"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="100"/>
+      <c r="AS27" s="100"/>
+      <c r="AT27" s="100"/>
+      <c r="AU27" s="100"/>
+      <c r="AV27" s="100"/>
+      <c r="AW27" s="100"/>
+      <c r="AX27" s="100"/>
+      <c r="AY27" s="100"/>
+      <c r="AZ27" s="100"/>
     </row>
     <row r="28" spans="1:52" ht="12">
-      <c r="A28" s="96">
+      <c r="A28" s="100">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="96"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="96"/>
-      <c r="AM28" s="96"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="96"/>
-      <c r="AP28" s="96"/>
-      <c r="AQ28" s="96"/>
-      <c r="AR28" s="96"/>
-      <c r="AS28" s="96"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="96"/>
-      <c r="AV28" s="96"/>
-      <c r="AW28" s="96"/>
-      <c r="AX28" s="96"/>
-      <c r="AY28" s="96"/>
-      <c r="AZ28" s="96"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="100"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="100"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="100"/>
+      <c r="AU28" s="100"/>
+      <c r="AV28" s="100"/>
+      <c r="AW28" s="100"/>
+      <c r="AX28" s="100"/>
+      <c r="AY28" s="100"/>
+      <c r="AZ28" s="100"/>
     </row>
     <row r="29" spans="1:52" ht="12">
-      <c r="A29" s="96">
+      <c r="A29" s="100">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="96"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="96"/>
-      <c r="AI29" s="96"/>
-      <c r="AJ29" s="96"/>
-      <c r="AK29" s="96"/>
-      <c r="AL29" s="96"/>
-      <c r="AM29" s="96"/>
-      <c r="AN29" s="96"/>
-      <c r="AO29" s="96"/>
-      <c r="AP29" s="96"/>
-      <c r="AQ29" s="96"/>
-      <c r="AR29" s="96"/>
-      <c r="AS29" s="96"/>
-      <c r="AT29" s="96"/>
-      <c r="AU29" s="96"/>
-      <c r="AV29" s="96"/>
-      <c r="AW29" s="96"/>
-      <c r="AX29" s="96"/>
-      <c r="AY29" s="96"/>
-      <c r="AZ29" s="96"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="100"/>
+      <c r="AN29" s="100"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="100"/>
+      <c r="AQ29" s="100"/>
+      <c r="AR29" s="100"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="100"/>
+      <c r="AU29" s="100"/>
+      <c r="AV29" s="100"/>
+      <c r="AW29" s="100"/>
+      <c r="AX29" s="100"/>
+      <c r="AY29" s="100"/>
+      <c r="AZ29" s="100"/>
     </row>
     <row r="30" spans="1:52" ht="12">
-      <c r="A30" s="96">
+      <c r="A30" s="100">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="96"/>
-      <c r="AN30" s="96"/>
-      <c r="AO30" s="96"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="96"/>
-      <c r="AS30" s="96"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="96"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="96"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="96"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="100"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="100"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="100"/>
+      <c r="AU30" s="100"/>
+      <c r="AV30" s="100"/>
+      <c r="AW30" s="100"/>
+      <c r="AX30" s="100"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="100"/>
     </row>
     <row r="31" spans="1:52" ht="12">
-      <c r="A31" s="96">
+      <c r="A31" s="100">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="96"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="96"/>
-      <c r="AI31" s="96"/>
-      <c r="AJ31" s="96"/>
-      <c r="AK31" s="96"/>
-      <c r="AL31" s="96"/>
-      <c r="AM31" s="96"/>
-      <c r="AN31" s="96"/>
-      <c r="AO31" s="96"/>
-      <c r="AP31" s="96"/>
-      <c r="AQ31" s="96"/>
-      <c r="AR31" s="96"/>
-      <c r="AS31" s="96"/>
-      <c r="AT31" s="96"/>
-      <c r="AU31" s="96"/>
-      <c r="AV31" s="96"/>
-      <c r="AW31" s="96"/>
-      <c r="AX31" s="96"/>
-      <c r="AY31" s="96"/>
-      <c r="AZ31" s="96"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="100"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="100"/>
+      <c r="AQ31" s="100"/>
+      <c r="AR31" s="100"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="100"/>
+      <c r="AU31" s="100"/>
+      <c r="AV31" s="100"/>
+      <c r="AW31" s="100"/>
+      <c r="AX31" s="100"/>
+      <c r="AY31" s="100"/>
+      <c r="AZ31" s="100"/>
     </row>
     <row r="32" spans="1:52" ht="12">
-      <c r="A32" s="96">
+      <c r="A32" s="100">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="96"/>
-      <c r="AG32" s="96"/>
-      <c r="AH32" s="96"/>
-      <c r="AI32" s="96"/>
-      <c r="AJ32" s="96"/>
-      <c r="AK32" s="96"/>
-      <c r="AL32" s="96"/>
-      <c r="AM32" s="96"/>
-      <c r="AN32" s="96"/>
-      <c r="AO32" s="96"/>
-      <c r="AP32" s="96"/>
-      <c r="AQ32" s="96"/>
-      <c r="AR32" s="96"/>
-      <c r="AS32" s="96"/>
-      <c r="AT32" s="96"/>
-      <c r="AU32" s="96"/>
-      <c r="AV32" s="96"/>
-      <c r="AW32" s="96"/>
-      <c r="AX32" s="96"/>
-      <c r="AY32" s="96"/>
-      <c r="AZ32" s="96"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="100"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="100"/>
+      <c r="AM32" s="100"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="100"/>
+      <c r="AQ32" s="100"/>
+      <c r="AR32" s="100"/>
+      <c r="AS32" s="100"/>
+      <c r="AT32" s="100"/>
+      <c r="AU32" s="100"/>
+      <c r="AV32" s="100"/>
+      <c r="AW32" s="100"/>
+      <c r="AX32" s="100"/>
+      <c r="AY32" s="100"/>
+      <c r="AZ32" s="100"/>
     </row>
     <row r="33" spans="1:52" ht="12">
-      <c r="A33" s="96">
+      <c r="A33" s="100">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="96"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="96"/>
-      <c r="AI33" s="96"/>
-      <c r="AJ33" s="96"/>
-      <c r="AK33" s="96"/>
-      <c r="AL33" s="96"/>
-      <c r="AM33" s="96"/>
-      <c r="AN33" s="96"/>
-      <c r="AO33" s="96"/>
-      <c r="AP33" s="96"/>
-      <c r="AQ33" s="96"/>
-      <c r="AR33" s="96"/>
-      <c r="AS33" s="96"/>
-      <c r="AT33" s="96"/>
-      <c r="AU33" s="96"/>
-      <c r="AV33" s="96"/>
-      <c r="AW33" s="96"/>
-      <c r="AX33" s="96"/>
-      <c r="AY33" s="96"/>
-      <c r="AZ33" s="96"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="100"/>
+      <c r="AN33" s="100"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="100"/>
+      <c r="AQ33" s="100"/>
+      <c r="AR33" s="100"/>
+      <c r="AS33" s="100"/>
+      <c r="AT33" s="100"/>
+      <c r="AU33" s="100"/>
+      <c r="AV33" s="100"/>
+      <c r="AW33" s="100"/>
+      <c r="AX33" s="100"/>
+      <c r="AY33" s="100"/>
+      <c r="AZ33" s="100"/>
     </row>
     <row r="34" spans="1:52" ht="12">
-      <c r="A34" s="96">
+      <c r="A34" s="100">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
-      <c r="AD34" s="96"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="96"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="96"/>
-      <c r="AI34" s="96"/>
-      <c r="AJ34" s="96"/>
-      <c r="AK34" s="96"/>
-      <c r="AL34" s="96"/>
-      <c r="AM34" s="96"/>
-      <c r="AN34" s="96"/>
-      <c r="AO34" s="96"/>
-      <c r="AP34" s="96"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="96"/>
-      <c r="AS34" s="96"/>
-      <c r="AT34" s="96"/>
-      <c r="AU34" s="96"/>
-      <c r="AV34" s="96"/>
-      <c r="AW34" s="96"/>
-      <c r="AX34" s="96"/>
-      <c r="AY34" s="96"/>
-      <c r="AZ34" s="96"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="100"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="100"/>
+      <c r="AN34" s="100"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="100"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="100"/>
+      <c r="AU34" s="100"/>
+      <c r="AV34" s="100"/>
+      <c r="AW34" s="100"/>
+      <c r="AX34" s="100"/>
+      <c r="AY34" s="100"/>
+      <c r="AZ34" s="100"/>
     </row>
     <row r="35" spans="1:52" ht="12">
-      <c r="A35" s="96">
+      <c r="A35" s="100">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="96"/>
-      <c r="AB35" s="96"/>
-      <c r="AC35" s="96"/>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="96"/>
-      <c r="AH35" s="96"/>
-      <c r="AI35" s="96"/>
-      <c r="AJ35" s="96"/>
-      <c r="AK35" s="96"/>
-      <c r="AL35" s="96"/>
-      <c r="AM35" s="96"/>
-      <c r="AN35" s="96"/>
-      <c r="AO35" s="96"/>
-      <c r="AP35" s="96"/>
-      <c r="AQ35" s="96"/>
-      <c r="AR35" s="96"/>
-      <c r="AS35" s="96"/>
-      <c r="AT35" s="96"/>
-      <c r="AU35" s="96"/>
-      <c r="AV35" s="96"/>
-      <c r="AW35" s="96"/>
-      <c r="AX35" s="96"/>
-      <c r="AY35" s="96"/>
-      <c r="AZ35" s="96"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="100"/>
+      <c r="AN35" s="100"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="100"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="100"/>
+      <c r="AU35" s="100"/>
+      <c r="AV35" s="100"/>
+      <c r="AW35" s="100"/>
+      <c r="AX35" s="100"/>
+      <c r="AY35" s="100"/>
+      <c r="AZ35" s="100"/>
     </row>
     <row r="36" spans="1:52" ht="12">
-      <c r="A36" s="96">
+      <c r="A36" s="100">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="96"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="96"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="96"/>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="100"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="100"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="100"/>
+      <c r="AN36" s="100"/>
+      <c r="AO36" s="100"/>
+      <c r="AP36" s="100"/>
+      <c r="AQ36" s="100"/>
+      <c r="AR36" s="100"/>
+      <c r="AS36" s="100"/>
+      <c r="AT36" s="100"/>
+      <c r="AU36" s="100"/>
+      <c r="AV36" s="100"/>
+      <c r="AW36" s="100"/>
+      <c r="AX36" s="100"/>
+      <c r="AY36" s="100"/>
+      <c r="AZ36" s="100"/>
     </row>
     <row r="37" spans="1:52" ht="12">
-      <c r="A37" s="96">
+      <c r="A37" s="100">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="96"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="96"/>
-      <c r="AL37" s="96"/>
-      <c r="AM37" s="96"/>
-      <c r="AN37" s="96"/>
-      <c r="AO37" s="96"/>
-      <c r="AP37" s="96"/>
-      <c r="AQ37" s="96"/>
-      <c r="AR37" s="96"/>
-      <c r="AS37" s="96"/>
-      <c r="AT37" s="96"/>
-      <c r="AU37" s="96"/>
-      <c r="AV37" s="96"/>
-      <c r="AW37" s="96"/>
-      <c r="AX37" s="96"/>
-      <c r="AY37" s="96"/>
-      <c r="AZ37" s="96"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="100"/>
+      <c r="X37" s="100"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
+      <c r="AA37" s="100"/>
+      <c r="AB37" s="100"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="100"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="100"/>
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="100"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="100"/>
+      <c r="AK37" s="100"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="100"/>
+      <c r="AN37" s="100"/>
+      <c r="AO37" s="100"/>
+      <c r="AP37" s="100"/>
+      <c r="AQ37" s="100"/>
+      <c r="AR37" s="100"/>
+      <c r="AS37" s="100"/>
+      <c r="AT37" s="100"/>
+      <c r="AU37" s="100"/>
+      <c r="AV37" s="100"/>
+      <c r="AW37" s="100"/>
+      <c r="AX37" s="100"/>
+      <c r="AY37" s="100"/>
+      <c r="AZ37" s="100"/>
     </row>
     <row r="38" spans="1:52" ht="12">
-      <c r="A38" s="96">
+      <c r="A38" s="100">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="96"/>
-      <c r="AH38" s="96"/>
-      <c r="AI38" s="96"/>
-      <c r="AJ38" s="96"/>
-      <c r="AK38" s="96"/>
-      <c r="AL38" s="96"/>
-      <c r="AM38" s="96"/>
-      <c r="AN38" s="96"/>
-      <c r="AO38" s="96"/>
-      <c r="AP38" s="96"/>
-      <c r="AQ38" s="96"/>
-      <c r="AR38" s="96"/>
-      <c r="AS38" s="96"/>
-      <c r="AT38" s="96"/>
-      <c r="AU38" s="96"/>
-      <c r="AV38" s="96"/>
-      <c r="AW38" s="96"/>
-      <c r="AX38" s="96"/>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="100"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="100"/>
+      <c r="AB38" s="100"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="100"/>
+      <c r="AH38" s="100"/>
+      <c r="AI38" s="100"/>
+      <c r="AJ38" s="100"/>
+      <c r="AK38" s="100"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="100"/>
+      <c r="AN38" s="100"/>
+      <c r="AO38" s="100"/>
+      <c r="AP38" s="100"/>
+      <c r="AQ38" s="100"/>
+      <c r="AR38" s="100"/>
+      <c r="AS38" s="100"/>
+      <c r="AT38" s="100"/>
+      <c r="AU38" s="100"/>
+      <c r="AV38" s="100"/>
+      <c r="AW38" s="100"/>
+      <c r="AX38" s="100"/>
+      <c r="AY38" s="100"/>
+      <c r="AZ38" s="100"/>
     </row>
     <row r="39" spans="1:52" ht="12">
-      <c r="A39" s="96">
+      <c r="A39" s="100">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="96"/>
-      <c r="AE39" s="96"/>
-      <c r="AF39" s="96"/>
-      <c r="AG39" s="96"/>
-      <c r="AH39" s="96"/>
-      <c r="AI39" s="96"/>
-      <c r="AJ39" s="96"/>
-      <c r="AK39" s="96"/>
-      <c r="AL39" s="96"/>
-      <c r="AM39" s="96"/>
-      <c r="AN39" s="96"/>
-      <c r="AO39" s="96"/>
-      <c r="AP39" s="96"/>
-      <c r="AQ39" s="96"/>
-      <c r="AR39" s="96"/>
-      <c r="AS39" s="96"/>
-      <c r="AT39" s="96"/>
-      <c r="AU39" s="96"/>
-      <c r="AV39" s="96"/>
-      <c r="AW39" s="96"/>
-      <c r="AX39" s="96"/>
-      <c r="AY39" s="96"/>
-      <c r="AZ39" s="96"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="100"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="100"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="100"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="100"/>
+      <c r="AK39" s="100"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="100"/>
+      <c r="AN39" s="100"/>
+      <c r="AO39" s="100"/>
+      <c r="AP39" s="100"/>
+      <c r="AQ39" s="100"/>
+      <c r="AR39" s="100"/>
+      <c r="AS39" s="100"/>
+      <c r="AT39" s="100"/>
+      <c r="AU39" s="100"/>
+      <c r="AV39" s="100"/>
+      <c r="AW39" s="100"/>
+      <c r="AX39" s="100"/>
+      <c r="AY39" s="100"/>
+      <c r="AZ39" s="100"/>
     </row>
     <row r="40" spans="1:52" ht="12">
-      <c r="A40" s="96">
+      <c r="A40" s="100">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="96"/>
-      <c r="AC40" s="96"/>
-      <c r="AD40" s="96"/>
-      <c r="AE40" s="96"/>
-      <c r="AF40" s="96"/>
-      <c r="AG40" s="96"/>
-      <c r="AH40" s="96"/>
-      <c r="AI40" s="96"/>
-      <c r="AJ40" s="96"/>
-      <c r="AK40" s="96"/>
-      <c r="AL40" s="96"/>
-      <c r="AM40" s="96"/>
-      <c r="AN40" s="96"/>
-      <c r="AO40" s="96"/>
-      <c r="AP40" s="96"/>
-      <c r="AQ40" s="96"/>
-      <c r="AR40" s="96"/>
-      <c r="AS40" s="96"/>
-      <c r="AT40" s="96"/>
-      <c r="AU40" s="96"/>
-      <c r="AV40" s="96"/>
-      <c r="AW40" s="96"/>
-      <c r="AX40" s="96"/>
-      <c r="AY40" s="96"/>
-      <c r="AZ40" s="96"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="100"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="100"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="100"/>
+      <c r="AK40" s="100"/>
+      <c r="AL40" s="100"/>
+      <c r="AM40" s="100"/>
+      <c r="AN40" s="100"/>
+      <c r="AO40" s="100"/>
+      <c r="AP40" s="100"/>
+      <c r="AQ40" s="100"/>
+      <c r="AR40" s="100"/>
+      <c r="AS40" s="100"/>
+      <c r="AT40" s="100"/>
+      <c r="AU40" s="100"/>
+      <c r="AV40" s="100"/>
+      <c r="AW40" s="100"/>
+      <c r="AX40" s="100"/>
+      <c r="AY40" s="100"/>
+      <c r="AZ40" s="100"/>
     </row>
     <row r="41" spans="1:52" ht="12">
-      <c r="A41" s="96">
+      <c r="A41" s="100">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="96"/>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="96"/>
-      <c r="AE41" s="96"/>
-      <c r="AF41" s="96"/>
-      <c r="AG41" s="96"/>
-      <c r="AH41" s="96"/>
-      <c r="AI41" s="96"/>
-      <c r="AJ41" s="96"/>
-      <c r="AK41" s="96"/>
-      <c r="AL41" s="96"/>
-      <c r="AM41" s="96"/>
-      <c r="AN41" s="96"/>
-      <c r="AO41" s="96"/>
-      <c r="AP41" s="96"/>
-      <c r="AQ41" s="96"/>
-      <c r="AR41" s="96"/>
-      <c r="AS41" s="96"/>
-      <c r="AT41" s="96"/>
-      <c r="AU41" s="96"/>
-      <c r="AV41" s="96"/>
-      <c r="AW41" s="96"/>
-      <c r="AX41" s="96"/>
-      <c r="AY41" s="96"/>
-      <c r="AZ41" s="96"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="100"/>
+      <c r="V41" s="100"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="100"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="100"/>
+      <c r="AA41" s="100"/>
+      <c r="AB41" s="100"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="100"/>
+      <c r="AE41" s="100"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="100"/>
+      <c r="AH41" s="100"/>
+      <c r="AI41" s="100"/>
+      <c r="AJ41" s="100"/>
+      <c r="AK41" s="100"/>
+      <c r="AL41" s="100"/>
+      <c r="AM41" s="100"/>
+      <c r="AN41" s="100"/>
+      <c r="AO41" s="100"/>
+      <c r="AP41" s="100"/>
+      <c r="AQ41" s="100"/>
+      <c r="AR41" s="100"/>
+      <c r="AS41" s="100"/>
+      <c r="AT41" s="100"/>
+      <c r="AU41" s="100"/>
+      <c r="AV41" s="100"/>
+      <c r="AW41" s="100"/>
+      <c r="AX41" s="100"/>
+      <c r="AY41" s="100"/>
+      <c r="AZ41" s="100"/>
     </row>
     <row r="42" spans="1:52" ht="12">
-      <c r="A42" s="96">
+      <c r="A42" s="100">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="96"/>
-      <c r="AC42" s="96"/>
-      <c r="AD42" s="96"/>
-      <c r="AE42" s="96"/>
-      <c r="AF42" s="96"/>
-      <c r="AG42" s="96"/>
-      <c r="AH42" s="96"/>
-      <c r="AI42" s="96"/>
-      <c r="AJ42" s="96"/>
-      <c r="AK42" s="96"/>
-      <c r="AL42" s="96"/>
-      <c r="AM42" s="96"/>
-      <c r="AN42" s="96"/>
-      <c r="AO42" s="96"/>
-      <c r="AP42" s="96"/>
-      <c r="AQ42" s="96"/>
-      <c r="AR42" s="96"/>
-      <c r="AS42" s="96"/>
-      <c r="AT42" s="96"/>
-      <c r="AU42" s="96"/>
-      <c r="AV42" s="96"/>
-      <c r="AW42" s="96"/>
-      <c r="AX42" s="96"/>
-      <c r="AY42" s="96"/>
-      <c r="AZ42" s="96"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="100"/>
+      <c r="AE42" s="100"/>
+      <c r="AF42" s="100"/>
+      <c r="AG42" s="100"/>
+      <c r="AH42" s="100"/>
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="100"/>
+      <c r="AK42" s="100"/>
+      <c r="AL42" s="100"/>
+      <c r="AM42" s="100"/>
+      <c r="AN42" s="100"/>
+      <c r="AO42" s="100"/>
+      <c r="AP42" s="100"/>
+      <c r="AQ42" s="100"/>
+      <c r="AR42" s="100"/>
+      <c r="AS42" s="100"/>
+      <c r="AT42" s="100"/>
+      <c r="AU42" s="100"/>
+      <c r="AV42" s="100"/>
+      <c r="AW42" s="100"/>
+      <c r="AX42" s="100"/>
+      <c r="AY42" s="100"/>
+      <c r="AZ42" s="100"/>
     </row>
     <row r="43" spans="1:52" ht="12">
-      <c r="A43" s="96">
+      <c r="A43" s="100">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96"/>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="96"/>
-      <c r="AH43" s="96"/>
-      <c r="AI43" s="96"/>
-      <c r="AJ43" s="96"/>
-      <c r="AK43" s="96"/>
-      <c r="AL43" s="96"/>
-      <c r="AM43" s="96"/>
-      <c r="AN43" s="96"/>
-      <c r="AO43" s="96"/>
-      <c r="AP43" s="96"/>
-      <c r="AQ43" s="96"/>
-      <c r="AR43" s="96"/>
-      <c r="AS43" s="96"/>
-      <c r="AT43" s="96"/>
-      <c r="AU43" s="96"/>
-      <c r="AV43" s="96"/>
-      <c r="AW43" s="96"/>
-      <c r="AX43" s="96"/>
-      <c r="AY43" s="96"/>
-      <c r="AZ43" s="96"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="100"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="100"/>
+      <c r="AE43" s="100"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="100"/>
+      <c r="AH43" s="100"/>
+      <c r="AI43" s="100"/>
+      <c r="AJ43" s="100"/>
+      <c r="AK43" s="100"/>
+      <c r="AL43" s="100"/>
+      <c r="AM43" s="100"/>
+      <c r="AN43" s="100"/>
+      <c r="AO43" s="100"/>
+      <c r="AP43" s="100"/>
+      <c r="AQ43" s="100"/>
+      <c r="AR43" s="100"/>
+      <c r="AS43" s="100"/>
+      <c r="AT43" s="100"/>
+      <c r="AU43" s="100"/>
+      <c r="AV43" s="100"/>
+      <c r="AW43" s="100"/>
+      <c r="AX43" s="100"/>
+      <c r="AY43" s="100"/>
+      <c r="AZ43" s="100"/>
     </row>
     <row r="44" spans="1:52" ht="12">
-      <c r="A44" s="96">
+      <c r="A44" s="100">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="96"/>
-      <c r="AG44" s="96"/>
-      <c r="AH44" s="96"/>
-      <c r="AI44" s="96"/>
-      <c r="AJ44" s="96"/>
-      <c r="AK44" s="96"/>
-      <c r="AL44" s="96"/>
-      <c r="AM44" s="96"/>
-      <c r="AN44" s="96"/>
-      <c r="AO44" s="96"/>
-      <c r="AP44" s="96"/>
-      <c r="AQ44" s="96"/>
-      <c r="AR44" s="96"/>
-      <c r="AS44" s="96"/>
-      <c r="AT44" s="96"/>
-      <c r="AU44" s="96"/>
-      <c r="AV44" s="96"/>
-      <c r="AW44" s="96"/>
-      <c r="AX44" s="96"/>
-      <c r="AY44" s="96"/>
-      <c r="AZ44" s="96"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="100"/>
+      <c r="AE44" s="100"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="100"/>
+      <c r="AH44" s="100"/>
+      <c r="AI44" s="100"/>
+      <c r="AJ44" s="100"/>
+      <c r="AK44" s="100"/>
+      <c r="AL44" s="100"/>
+      <c r="AM44" s="100"/>
+      <c r="AN44" s="100"/>
+      <c r="AO44" s="100"/>
+      <c r="AP44" s="100"/>
+      <c r="AQ44" s="100"/>
+      <c r="AR44" s="100"/>
+      <c r="AS44" s="100"/>
+      <c r="AT44" s="100"/>
+      <c r="AU44" s="100"/>
+      <c r="AV44" s="100"/>
+      <c r="AW44" s="100"/>
+      <c r="AX44" s="100"/>
+      <c r="AY44" s="100"/>
+      <c r="AZ44" s="100"/>
     </row>
     <row r="45" spans="1:52" ht="12">
-      <c r="A45" s="96">
+      <c r="A45" s="100">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="96"/>
-      <c r="AH45" s="96"/>
-      <c r="AI45" s="96"/>
-      <c r="AJ45" s="96"/>
-      <c r="AK45" s="96"/>
-      <c r="AL45" s="96"/>
-      <c r="AM45" s="96"/>
-      <c r="AN45" s="96"/>
-      <c r="AO45" s="96"/>
-      <c r="AP45" s="96"/>
-      <c r="AQ45" s="96"/>
-      <c r="AR45" s="96"/>
-      <c r="AS45" s="96"/>
-      <c r="AT45" s="96"/>
-      <c r="AU45" s="96"/>
-      <c r="AV45" s="96"/>
-      <c r="AW45" s="96"/>
-      <c r="AX45" s="96"/>
-      <c r="AY45" s="96"/>
-      <c r="AZ45" s="96"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="100"/>
+      <c r="U45" s="100"/>
+      <c r="V45" s="100"/>
+      <c r="W45" s="100"/>
+      <c r="X45" s="100"/>
+      <c r="Y45" s="100"/>
+      <c r="Z45" s="100"/>
+      <c r="AA45" s="100"/>
+      <c r="AB45" s="100"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="100"/>
+      <c r="AE45" s="100"/>
+      <c r="AF45" s="100"/>
+      <c r="AG45" s="100"/>
+      <c r="AH45" s="100"/>
+      <c r="AI45" s="100"/>
+      <c r="AJ45" s="100"/>
+      <c r="AK45" s="100"/>
+      <c r="AL45" s="100"/>
+      <c r="AM45" s="100"/>
+      <c r="AN45" s="100"/>
+      <c r="AO45" s="100"/>
+      <c r="AP45" s="100"/>
+      <c r="AQ45" s="100"/>
+      <c r="AR45" s="100"/>
+      <c r="AS45" s="100"/>
+      <c r="AT45" s="100"/>
+      <c r="AU45" s="100"/>
+      <c r="AV45" s="100"/>
+      <c r="AW45" s="100"/>
+      <c r="AX45" s="100"/>
+      <c r="AY45" s="100"/>
+      <c r="AZ45" s="100"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="104">
+      <c r="A46" s="108">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="104"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="104"/>
-      <c r="AG46" s="104"/>
-      <c r="AH46" s="104"/>
-      <c r="AI46" s="104"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="104"/>
-      <c r="AN46" s="104"/>
-      <c r="AO46" s="104"/>
-      <c r="AP46" s="104"/>
-      <c r="AQ46" s="104"/>
-      <c r="AR46" s="104"/>
-      <c r="AS46" s="104"/>
-      <c r="AT46" s="104"/>
-      <c r="AU46" s="104"/>
-      <c r="AV46" s="104"/>
-      <c r="AW46" s="104"/>
-      <c r="AX46" s="104"/>
-      <c r="AY46" s="104"/>
-      <c r="AZ46" s="104"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="108"/>
+      <c r="AA46" s="108"/>
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108"/>
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108"/>
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
+      <c r="AP46" s="108"/>
+      <c r="AQ46" s="108"/>
+      <c r="AR46" s="108"/>
+      <c r="AS46" s="108"/>
+      <c r="AT46" s="108"/>
+      <c r="AU46" s="108"/>
+      <c r="AV46" s="108"/>
+      <c r="AW46" s="108"/>
+      <c r="AX46" s="108"/>
+      <c r="AY46" s="108"/>
+      <c r="AZ46" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="216">
@@ -10243,175 +10697,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="6" width="2.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="16" customWidth="1"/>
-    <col min="8" max="18" width="2.6640625" style="16" customWidth="1"/>
+    <col min="1" max="4" width="2.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="16" customWidth="1"/>
+    <col min="8" max="16" width="2.6640625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="5" style="16" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" style="16" customWidth="1"/>
     <col min="19" max="19" width="6.109375" style="16" customWidth="1"/>
-    <col min="20" max="28" width="2.6640625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="7.77734375" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.6640625" style="16"/>
+    <col min="20" max="25" width="2.6640625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="9" style="16" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="2.88671875" style="16" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" style="16" customWidth="1"/>
+    <col min="30" max="31" width="2.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="32" max="40" width="2.6640625" style="16"/>
+    <col min="41" max="41" width="1.88671875" style="16" customWidth="1"/>
+    <col min="42" max="42" width="2.33203125" style="16" customWidth="1"/>
+    <col min="43" max="43" width="2.44140625" style="16" customWidth="1"/>
+    <col min="44" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="131" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="132" t="s">
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="131" t="s">
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="133">
-        <v>45904</v>
-      </c>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="133"/>
-      <c r="AS1" s="133"/>
-      <c r="AT1" s="133"/>
-      <c r="AU1" s="121" t="s">
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="137">
+        <v>45912</v>
+      </c>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="125">
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="129">
         <v>1</v>
       </c>
-      <c r="AX1" s="126"/>
-      <c r="AY1" s="127"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="131"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="134" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="135" t="s">
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="134" t="s">
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="136" t="s">
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="130"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="134"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
       <c r="A6" s="23"/>
@@ -10468,10 +10934,12 @@
     </row>
     <row r="7" spans="1:51" ht="13.5" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -10479,15 +10947,15 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28" t="s">
-        <v>38</v>
-      </c>
+      <c r="M7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
@@ -10498,16 +10966,16 @@
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
       <c r="AN7" s="28"/>
       <c r="AO7" s="28"/>
       <c r="AP7" s="28"/>
@@ -10523,12 +10991,12 @@
     </row>
     <row r="8" spans="1:51" ht="13.5" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="28"/>
+      <c r="B8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -10536,17 +11004,17 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="M8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
@@ -10559,12 +11027,12 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
       <c r="AG8" s="28"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="28"/>
@@ -10580,30 +11048,30 @@
     </row>
     <row r="9" spans="1:51" ht="13.5" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="N9" s="28"/>
-      <c r="O9" s="34" t="s">
-        <v>39</v>
-      </c>
+      <c r="O9" s="28"/>
       <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="28"/>
-      <c r="S9" s="35"/>
+      <c r="S9" s="33"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="33"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
       <c r="X9" s="28"/>
@@ -10616,9 +11084,9 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="28"/>
       <c r="AG9" s="28"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
       <c r="AL9" s="28"/>
       <c r="AM9" s="28"/>
@@ -10637,30 +11105,30 @@
     </row>
     <row r="10" spans="1:51" ht="13.5" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="M10" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="28"/>
-      <c r="O10" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="O10" s="28"/>
       <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="28"/>
-      <c r="S10" s="35"/>
+      <c r="S10" s="33"/>
       <c r="T10" s="28"/>
-      <c r="U10" s="33"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
       <c r="X10" s="28"/>
@@ -10673,9 +11141,9 @@
       <c r="AE10" s="28"/>
       <c r="AF10" s="28"/>
       <c r="AG10" s="28"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
       <c r="AK10" s="28"/>
       <c r="AL10" s="28"/>
       <c r="AM10" s="28"/>
@@ -10694,47 +11162,47 @@
     </row>
     <row r="11" spans="1:51" ht="13.5" customHeight="1">
       <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="M11" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="N11" s="28"/>
-      <c r="O11" s="34" t="s">
-        <v>41</v>
-      </c>
+      <c r="O11" s="28"/>
       <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="35"/>
+      <c r="S11" s="33"/>
       <c r="T11" s="28"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="28"/>
+      <c r="V11" s="33"/>
       <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
       <c r="AG11" s="28"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
@@ -10753,47 +11221,47 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="28"/>
+      <c r="B12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="35"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="N12" s="28"/>
-      <c r="O12" s="34" t="s">
-        <v>49</v>
-      </c>
+      <c r="O12" s="28"/>
       <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="28"/>
-      <c r="S12" s="35"/>
+      <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="46"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
       <c r="AF12" s="28"/>
       <c r="AG12" s="28"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
@@ -10812,47 +11280,47 @@
     </row>
     <row r="13" spans="1:51" ht="12">
       <c r="A13" s="38"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="M13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="43"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
       <c r="AF13" s="28"/>
       <c r="AG13" s="28"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
@@ -10871,47 +11339,47 @@
     </row>
     <row r="14" spans="1:51" ht="12">
       <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="M14" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="43"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
       <c r="AF14" s="28"/>
       <c r="AG14" s="28"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -10953,17 +11421,17 @@
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28"/>
       <c r="AG15" s="28"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
@@ -10982,41 +11450,41 @@
     </row>
     <row r="16" spans="1:51" ht="12">
       <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28"/>
       <c r="AG16" s="28"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="28"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -11035,41 +11503,41 @@
     </row>
     <row r="17" spans="1:51" ht="14.4" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
       <c r="AG17" s="28"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
       <c r="AL17" s="28"/>
       <c r="AM17" s="28"/>
@@ -11088,41 +11556,41 @@
     </row>
     <row r="18" spans="1:51" ht="12">
       <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
       <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
       <c r="AG18" s="28"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="28"/>
@@ -11141,22 +11609,22 @@
     </row>
     <row r="19" spans="1:51" ht="12">
       <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="N19" s="28"/>
-      <c r="O19" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
@@ -11166,18 +11634,18 @@
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
       <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
       <c r="AG19" s="28"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
@@ -11196,11 +11664,11 @@
     </row>
     <row r="20" spans="1:51" ht="10.5" customHeight="1">
       <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="28" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>68</v>
-      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -11209,32 +11677,32 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
+      <c r="M20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
       <c r="AG20" s="28"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="28"/>
@@ -11253,28 +11721,28 @@
     </row>
     <row r="21" spans="1:51" ht="15.6" customHeight="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="M21" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="34" t="s">
-        <v>48</v>
-      </c>
+      <c r="O21" s="28"/>
       <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="35"/>
+      <c r="S21" s="28"/>
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
@@ -11289,9 +11757,9 @@
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
       <c r="AG21" s="28"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
@@ -11310,28 +11778,28 @@
     </row>
     <row r="22" spans="1:51" ht="14.4" customHeight="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="B22" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="M22" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="34" t="s">
-        <v>43</v>
-      </c>
+      <c r="O22" s="28"/>
       <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="35"/>
+      <c r="S22" s="28"/>
       <c r="T22" s="28"/>
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
@@ -11367,28 +11835,28 @@
     </row>
     <row r="23" spans="1:51" ht="10.5" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="B23" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="N23" s="28"/>
-      <c r="O23" s="34" t="s">
-        <v>44</v>
-      </c>
+      <c r="O23" s="28"/>
       <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="35"/>
+      <c r="S23" s="28"/>
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
@@ -11424,8 +11892,8 @@
     </row>
     <row r="24" spans="1:51" ht="10.5" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -11435,15 +11903,15 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="34" t="s">
+        <v>76</v>
+      </c>
       <c r="N24" s="28"/>
-      <c r="O24" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="O24" s="28"/>
       <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="Q24" s="35"/>
       <c r="R24" s="28"/>
-      <c r="S24" s="35"/>
+      <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="28"/>
@@ -11479,8 +11947,8 @@
     </row>
     <row r="25" spans="1:51" ht="10.5" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -11490,15 +11958,15 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N25" s="28"/>
-      <c r="O25" s="34" t="s">
-        <v>46</v>
-      </c>
+      <c r="O25" s="28"/>
       <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="28"/>
-      <c r="S25" s="35"/>
+      <c r="S25" s="28"/>
       <c r="T25" s="28"/>
       <c r="U25" s="28"/>
       <c r="V25" s="28"/>
@@ -11534,8 +12002,8 @@
     </row>
     <row r="26" spans="1:51" ht="10.5" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -11545,15 +12013,15 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="N26" s="28"/>
-      <c r="O26" s="34" t="s">
-        <v>47</v>
-      </c>
+      <c r="O26" s="28"/>
       <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="Q26" s="35"/>
       <c r="R26" s="28"/>
-      <c r="S26" s="35"/>
+      <c r="S26" s="28"/>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
       <c r="V26" s="28"/>
@@ -11589,8 +12057,8 @@
     </row>
     <row r="27" spans="1:51" ht="10.5" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -11600,15 +12068,15 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="41" t="s">
-        <v>70</v>
-      </c>
+      <c r="M27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
       <c r="T27" s="28"/>
       <c r="U27" s="28"/>
       <c r="V27" s="28"/>
@@ -11672,16 +12140,16 @@
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
       <c r="AN28" s="28"/>
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
@@ -11708,14 +12176,14 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
@@ -11725,16 +12193,16 @@
       <c r="AA29" s="27"/>
       <c r="AB29" s="27"/>
       <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="27"/>
-      <c r="AM29" s="27"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
       <c r="AN29" s="28"/>
       <c r="AO29" s="28"/>
       <c r="AP29" s="28"/>
@@ -11761,14 +12229,14 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
@@ -11778,16 +12246,16 @@
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
       <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
       <c r="AN30" s="28"/>
       <c r="AO30" s="28"/>
       <c r="AP30" s="28"/>
@@ -11814,14 +12282,14 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
       <c r="W31" s="27"/>
@@ -11831,16 +12299,16 @@
       <c r="AA31" s="27"/>
       <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
       <c r="AN31" s="28"/>
       <c r="AO31" s="28"/>
       <c r="AP31" s="28"/>
@@ -11883,17 +12351,17 @@
       <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="28"/>
       <c r="AP32" s="28"/>
@@ -11936,17 +12404,17 @@
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
       <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
       <c r="AN33" s="28"/>
       <c r="AO33" s="28"/>
       <c r="AP33" s="28"/>
@@ -11973,11 +12441,11 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="N34" s="27"/>
-      <c r="O34" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="O34" s="27"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
@@ -11985,23 +12453,25 @@
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
+      <c r="W34" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
       <c r="AN34" s="28"/>
       <c r="AO34" s="28"/>
       <c r="AP34" s="28"/>
@@ -12028,35 +12498,37 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="50" t="s">
-        <v>66</v>
-      </c>
+      <c r="M35" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
+      <c r="W35" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="52"/>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
       <c r="AN35" s="28"/>
       <c r="AO35" s="28"/>
       <c r="AP35" s="28"/>
@@ -12083,35 +12555,37 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="53" t="s">
-        <v>57</v>
-      </c>
+      <c r="M36" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
+      <c r="W36" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="55"/>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="28"/>
       <c r="AP36" s="28"/>
@@ -12397,11 +12871,11 @@
     <row r="42" spans="1:51" ht="12">
       <c r="A42" s="56"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
